--- a/posesiones/1479712.xlsx
+++ b/posesiones/1479712.xlsx
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>20</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>18</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <v>23</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>7</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>15</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25">
         <v>19</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R30">
         <v>21</v>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R31">
         <v>20</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R36">
         <v>9</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R39">
         <v>30</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R41">
         <v>25</v>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R42">
         <v>26</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R44">
         <v>14</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4020,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R47">
         <v>19</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49">
         <v>18</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>30</v>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R54">
         <v>16</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4620,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R59">
         <v>8</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4717,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R61">
         <v>19</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R63">
         <v>12</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R65">
         <v>22</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>19</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>13</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R75">
         <v>20</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R77">
         <v>21</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>16</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R86">
         <v>15</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R90">
         <v>13</v>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R95">
         <v>26</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R97">
         <v>13</v>
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6731,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R103">
         <v>23</v>
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -6878,10 +6878,10 @@
         <v>1</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7016,10 +7016,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R109">
         <v>16</v>
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R110">
         <v>23</v>
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R112">
         <v>15</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7328,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R114">
         <v>9</v>
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7478,7 +7478,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R117">
         <v>3</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R120">
         <v>20</v>
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7731,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R122">
         <v>15</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R124">
         <v>5</v>
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8069,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R129">
         <v>23</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8172,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R131">
         <v>8</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8275,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R133">
         <v>12</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8375,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R135">
         <v>20</v>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8754,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8851,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R145">
         <v>24</v>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9048,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R149">
         <v>18</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9286,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R156">
         <v>21</v>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9771,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R164">
         <v>28</v>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9865,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10056,7 +10056,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R170">
         <v>10</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10203,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R173">
         <v>0</v>
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R174">
         <v>23</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10359,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R176">
         <v>7</v>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R181">
         <v>26</v>
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10935,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R188">
         <v>0</v>
@@ -10985,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11176,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R195">
         <v>35</v>
@@ -11329,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R196">
         <v>18</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R198">
         <v>18</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11576,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R202">
         <v>12</v>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11826,7 +11826,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R206">
         <v>27</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11929,7 +11929,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R208">
         <v>18</v>
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12405,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R218">
         <v>18</v>
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12508,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R220">
         <v>21</v>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12649,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12696,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12793,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R226">
         <v>14</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R227">
         <v>13</v>
@@ -12899,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12946,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R230">
         <v>11</v>
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13099,7 +13099,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R232">
         <v>16</v>
@@ -13152,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R233">
         <v>12</v>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13302,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13352,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R237">
         <v>38</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R239">
         <v>2</v>
@@ -13496,10 +13496,10 @@
         <v>1</v>
       </c>
       <c r="P240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13822,10 +13822,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13875,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R248">
         <v>11</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14022,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14072,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R252">
         <v>24</v>
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14219,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R255">
         <v>0</v>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14322,7 +14322,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R257">
         <v>17</v>
@@ -14375,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14425,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R259">
         <v>11</v>
@@ -14478,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14528,7 +14528,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R261">
         <v>8</v>
@@ -14578,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14625,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14722,7 +14722,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R265">
         <v>16</v>
@@ -14772,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14872,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R268">
         <v>28</v>
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R269">
         <v>11</v>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15025,7 +15025,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R271">
         <v>7</v>
@@ -15078,7 +15078,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R272">
         <v>6</v>
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15225,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R275">
         <v>24</v>
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R277">
         <v>15</v>
@@ -15381,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15475,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15619,7 +15619,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R283">
         <v>5</v>
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15716,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15766,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R286">
         <v>22</v>
@@ -15816,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16004,7 +16004,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16051,7 +16051,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16098,7 +16098,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16148,7 +16148,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R294">
         <v>14</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R295">
         <v>18</v>
@@ -16251,7 +16251,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16301,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16351,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R298">
         <v>20</v>
@@ -16401,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16498,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16592,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16639,7 +16639,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16686,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16783,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R307">
         <v>29</v>
@@ -16836,7 +16836,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R308">
         <v>9</v>
@@ -16886,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16980,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17027,7 +17027,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17077,7 +17077,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R313">
         <v>0</v>
@@ -17127,7 +17127,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17177,7 +17177,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17227,7 +17227,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R316">
         <v>19</v>
@@ -17280,7 +17280,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R317">
         <v>15</v>
@@ -17333,7 +17333,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R318">
         <v>22</v>
@@ -17383,7 +17383,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17433,7 +17433,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R320">
         <v>15</v>
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17533,7 +17533,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R322">
         <v>16</v>
@@ -17583,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R324">
         <v>14</v>
@@ -17686,7 +17686,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R325">
         <v>17</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17786,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R327">
         <v>13</v>
@@ -17839,7 +17839,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R328">
         <v>20</v>
@@ -17889,7 +17889,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17939,7 +17939,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R330">
         <v>17</v>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18033,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18080,7 +18080,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18127,7 +18127,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18268,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18315,7 +18315,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18365,7 +18365,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R339">
         <v>13</v>
@@ -18418,7 +18418,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R340">
         <v>22</v>
@@ -18471,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18521,7 +18521,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R342">
         <v>13</v>
@@ -18571,7 +18571,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18668,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18718,7 +18718,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R346">
         <v>21</v>
@@ -18768,7 +18768,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18821,7 +18821,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R348">
         <v>10</v>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18918,7 +18918,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18965,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19015,7 +19015,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R352">
         <v>13</v>
@@ -19068,7 +19068,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19118,7 +19118,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R354">
         <v>19</v>
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19218,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19312,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19359,7 +19359,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19406,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19456,7 +19456,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R361">
         <v>2</v>
@@ -19506,7 +19506,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19603,7 +19603,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R364">
         <v>18</v>
@@ -19653,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19694,10 +19694,10 @@
         <v>1</v>
       </c>
       <c r="P366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q366">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19744,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19791,7 +19791,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19838,7 +19838,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19885,7 +19885,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19932,7 +19932,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19979,7 +19979,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20020,10 +20020,10 @@
         <v>1</v>
       </c>
       <c r="P373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q373">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20073,7 +20073,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R374">
         <v>7</v>
@@ -20123,7 +20123,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20173,7 +20173,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R376">
         <v>4</v>
@@ -20226,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R377">
         <v>29</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20329,7 +20329,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R379">
         <v>18</v>
@@ -20382,7 +20382,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20429,7 +20429,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20526,7 +20526,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20576,7 +20576,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R385">
         <v>30</v>
@@ -20676,7 +20676,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20723,7 +20723,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20770,7 +20770,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20864,7 +20864,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20911,7 +20911,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20961,7 +20961,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R392">
         <v>16</v>
@@ -21014,7 +21014,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R393">
         <v>26</v>
@@ -21064,7 +21064,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21114,7 +21114,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R395">
         <v>11</v>
@@ -21164,7 +21164,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21214,7 +21214,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R397">
         <v>14</v>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21314,7 +21314,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R399">
         <v>16</v>
@@ -21364,7 +21364,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21411,7 +21411,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21458,7 +21458,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21505,7 +21505,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21552,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21599,7 +21599,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21649,7 +21649,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R406">
         <v>14</v>
@@ -21702,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21752,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R408">
         <v>7</v>
@@ -21802,7 +21802,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21852,7 +21852,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R410">
         <v>0</v>
@@ -21905,7 +21905,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R411">
         <v>14</v>
@@ -21955,7 +21955,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22002,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22049,7 +22049,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22096,7 +22096,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22143,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22190,7 +22190,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22237,7 +22237,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22284,7 +22284,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22334,7 +22334,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R420">
         <v>26</v>
@@ -22384,7 +22384,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22431,7 +22431,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22478,7 +22478,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22525,7 +22525,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22572,7 +22572,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22619,7 +22619,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22669,7 +22669,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R427">
         <v>21</v>
@@ -22719,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22766,7 +22766,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22813,7 +22813,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22860,7 +22860,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22910,7 +22910,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R432">
         <v>28</v>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23010,7 +23010,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R434">
         <v>25</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23113,7 +23113,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R436">
         <v>15</v>
@@ -23163,7 +23163,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23210,7 +23210,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23260,7 +23260,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R439">
         <v>17</v>
@@ -23313,7 +23313,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R440">
         <v>20</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23410,7 +23410,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23454,7 +23454,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23504,7 +23504,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R444">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R445">
         <v>23</v>
@@ -23610,7 +23610,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23657,7 +23657,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23751,7 +23751,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23801,7 +23801,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R450">
         <v>22</v>
@@ -23854,7 +23854,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R451">
         <v>12</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23957,7 +23957,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R453">
         <v>15</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24060,7 +24060,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R455">
         <v>14</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24160,7 +24160,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R457">
         <v>9</v>
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24398,7 +24398,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24492,7 +24492,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24586,7 +24586,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24633,7 +24633,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24730,7 +24730,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R469">
         <v>3</v>
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24833,7 +24833,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R471">
         <v>6</v>
@@ -24886,7 +24886,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R472">
         <v>10</v>
@@ -24936,7 +24936,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25030,7 +25030,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25127,7 +25127,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R477">
         <v>12</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25224,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25271,7 +25271,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25321,7 +25321,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R481">
         <v>6</v>
@@ -25374,7 +25374,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R482">
         <v>9</v>
@@ -25427,7 +25427,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25477,7 +25477,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R484">
         <v>3</v>
@@ -25527,7 +25527,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25574,7 +25574,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25624,7 +25624,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R487">
         <v>5</v>
@@ -25674,7 +25674,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25815,7 +25815,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25865,7 +25865,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R492">
         <v>9</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25962,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26012,7 +26012,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R495">
         <v>7</v>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R496">
         <v>12</v>
@@ -26118,7 +26118,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R497">
         <v>4</v>
@@ -26168,7 +26168,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26215,7 +26215,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26262,7 +26262,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26309,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26356,7 +26356,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26403,7 +26403,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26450,7 +26450,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26497,7 +26497,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26544,7 +26544,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26594,7 +26594,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R507">
         <v>17</v>
@@ -26647,7 +26647,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26694,7 +26694,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26838,7 +26838,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R512">
         <v>4</v>
@@ -26891,7 +26891,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R513">
         <v>18</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -26994,7 +26994,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R515">
         <v>5</v>
@@ -27038,10 +27038,10 @@
         <v>1</v>
       </c>
       <c r="P516" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q516">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27082,7 +27082,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
